--- a/Testdata/TC_133.xlsx
+++ b/Testdata/TC_133.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>8RwAAB+LCAAAAAAAAAOlWVtvI0kV/istP8GD3W072YmjSq98SYKFHUexQyb7gtrdlbhIu8t0VSfx26JdtKOFkZDYHQTsgkBCICR2V2JZsTug+S+rcWZ44i9w6tI325lxD6No0nVuderUqXO+qqC3b6e+cY1DRmiwV6pWrJKBA5d6JLjcK0X8olx9q/S2jfZvXewfO6EzxRyEDdAK2O4tI3ulCeezXdO8ubmp3NQrNLw0a5ZVNR/2e0N3gqdOmQSMO4GLS4mW93qtko3a3rSPueM53FGae6XusFtpY+J2gNZ3AucSh5VWxEiAGdsPOOEEM6EZYofjdqf/A7Uwu1Z5q1JF5go9lWxFxPeUXE5S0bUcTItHZIrtmlXdKVuNslUfWY3dbWu31qjUrO13YsVEEPUcxoc4vCauJAy5M51Jdath1a3GtlVrIHOtENhKA2Cjge+d4GvCsNfGvs8KRcTUG9h0Oay6WDAtZGZ0taE3d+EwdGaTEeE+LubGyWnLGAfal9SIjQ5oiF2I3xu5dIRvBqEO62jWA+5oQkI+7zjzwrZOGQ4HMxGkYqo26tCAN30c8tMZ7DX2IBWAYfMwwsi8h5kqdQhz4ZsEEfbsC8dnWaUcE53R8IrNHBcfwTk2hY2bwKeOBwnHCePETSddYaDjkM7AIkzeor53AFa18BpGYrkbQIjFtC1Kr1Lv1jGR3FW5v7CnU4fH4it0NJzQm0Hgz4fRmLkhGWOv04ql1/KQOJBaux0xTqfgRUpCipah9PvmHP7BGVzmoA52ydTxj32II7PrYChHQM2I0wvC29SPpgGL3VqiojNY1AjfJotMxmgA+xuIuNOgG8TyKtJrWXmFE3qTzLnKkHHIkJvMjXd8lbEs3AFavIOrHLkpYpUHxIcWkd2ODDWfGMMJxnxtVigOEtXwQDQduzU/iqZjOGFjOGbXclaGzJSPIFUh3cEv24JGUpY/I8valT/gR8JG+4F3v1zMRDBdZi67CrwlEoI1+S3fCa6Aekb45KgZr2UNB6kI3Cu/ykNweGe+M5fkJEpZGuoGrh95WNWEbnAhU1T4pjb1XjZaIfXgmNvICeaj+QxKMyO7HD72StCsdxkPAQ6UbJdGAQ/nonggU4u+TodF40BO4Pgb61yE+McRoJD5QRS4beptPpunonMaEL65hzQKVUXcXEVGTxTHiHWwKDOy7m+s7xZZEwsLiU8DPKUBcTePNgRZeO+9wUJYfKo21sDqfG0s70NrV51PnPWN1UKAkNDrCk3TZIy6RCarPh5eRt+858h08IUT+QDfOHTZy6T2LpNRk10ty2RJ6DT04wpoC3DMAB273rTiAn4QCLDi0qkgmABKz4bIzMoLEOTi/eCy5wSXEcCMpK4s05P6K1rkKHQCJpaToIqlUrxeCMV1SqEdWxWvQSQTQRUvClxkLsmhEZ7OaOj4fQgMOdBppyEToJG+wyd6BL3Nx24cZDNVTbTynsWOv05MNim1DHHgdZlcIkohsRaFw1OZlIbEKvtwLP2245NxqKpq3MrX8WDDUnwY11+xuIJYMd4DuItB9/0+nguAng40XaZsNWaoBBaF1B6ebO3Utho7oCTHSK64DT5Rn0h8aRxSuA4GU9AzABljQI67xpzDUVDB0Q2ogF5WAx3EtV1O34cUzRHyfIAYlwQ6x4pcwkjl7T4Az4k/z0iq1fWoC4KLXzxafP3V3UfPFt98cvfRV4uf/um///rN4usvF48+ffnB358//VCtTwmjkTP2sXRo1NrZsepbkFoJCYl4mhIQe5HLJe38XOLgZIz0dU4O2vvd9mGvJUtIQozVVRcxxU1xTqN0OFSLkBPJXTTjzVci9iguSXqc42a6ki1ubtc4L53l36eoYvHi6Z9fPP3bvdo6YCm8qjYa9U3QF9yBt8pW7R701cuVfS28Xa7VMsJLMuhE1fwkTl3PrletRnXngVVNyreXZPA6oWWWtjRyLs0lPUVqK0SUpEB2HDNl3o8w4wlbnYTMQAXx7h8/e/n5xzkpHV1NyVsB5yRyEZOZ8UCaPjoZGcPB6Ul73xjtD0WepLyMnDL+CmE9e3KeskmzetpyKbWOqsy9UnF5xsOQRrOVSpFS10iurRmr3CVNGZtV11LeGnm9a588WqegV9JJAWnyhJGloRxHkTJ8Xbse/+T5N8+eP3v/xb9/dffk88XjPy7++V7Ojp4tud9D6sIByQ6TTIYqprvGEgWdDWVMr6wfZrqEJorr0DElAWd2bXtLXoX0EIFuVZiTv1F3Cp1LWpZhA/oSBX3PYfu3XB9W+wiZeQI4OnOgadL0CpkQVF1Ow/ufT39399sv75588fKDvy4+/Mvi509ePP39y8/+oE7S3cdf3D3+TFfu5eIufREXU4XlDPnS4RrihBmiBRvfvvtLI6DcAORgRLLKfPvurzPGhKMSY6SWAZkljuRdWBHNKgs9I+NK4kNOL1FRfbwt2lI9kdCNic6Im07yTlmYAnhpSMZ3uqNyxLBBARR9F1aSF06VN9XTKqpNHj+watWa5ipvxBLGDsuE/tCnY8c3YoZ8R1gSyWm9WiGVlfMd9gatZi8VUU4MQg+HIg3VB4qRoWgTXRaP4lTLUIAL+M2NfPH0syK2ykosZ8qZqd9QLpqeeFBf/+KQk0DtKAwVygn0q/wwmgGmjR/b7ufLB8gMjD1SkDMLbNNxt5PnwzjDheaWZwuC5MsKpVmqWnWZeK5RqPRIhCYdAi/3aAnh0A/vCj1dE9gSUxSe/TCk4drqk3JisT4AYqgoZhrxREbuqQLPXrpXMSGueMmHusDpFdIO9jEv9iptptp9QL9vqgt7X1S1ywa+p4NZ7AaRhCU1kH2aF4ny/77Mq2RrhiGAJfGOV/gpPb5/nsC1taA3ailSUVzkYHb91n1AQsYfikqgvxTlPKGcK9T5UNyb1Iccn9v1bUUAATNr3cy5GR9drv5AQv0emZKCtzsrPt95IxDL2UzBsm6xTBGt5QjfAmjMWICiOP4RtA31HFLEmkpYqKWJvniCZORywos69mDsYA+PrbI7xrXylmftlBsY18vVKvzvuLWaZW2LB0xtHCoHwTcFJzHjDUv/cGn/Dy9GuyLxHAAA</t>
+          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/iuWn+DB7radSeyo0ivfEizsOIodMtkX1O4ux0Xa3aarOonfFgHa0cJISOwOAnZBICEQErsrsazYHdD8l9U4MzzxFzh16audGXcYZZSuc6tTp06d81UFvXM7dwrX2KfEcw+KlbJeLGDX8mziXh4UAzYtVXaL7xioe2th58T0zTlmIFwALZfu31JyUJwxttjXtJubm/JNrez5l1pV1yva40F/ZM3w3CwRlzLTtXAx0rLfrlU0UNueDzAzbZOZUvOg2Bv1ym1MrA7QBqZrXmK/3AoocTGlXZcRRjDlmj42GW53Bt+TCzOq5d1yBWlr9FiyFRDHlnIpSUlXcjAtHpM5Nqp6VS/p9VJVH+uN/Vp1X98t71Xq74aKkSDqm5SNsH9NLEEYMXO+EOp6Hf43alV9F2kbhcBWHAADDR37FF8Tiu02dhyaKyKa2sCmxWDV+YKpIy2hqww93IUj31zMxoQ5OK/6oedjCwL1oLmP8c3QV/EbL/rAHc+Iz5Ydc5nb1hnF/nDBo5FP1UAdz2VNB/vsbAGbim3Yc2AYzA8w0u5hxkodQi34Jm6AbWNqOjSplGKic8+/ogvTwsdwYDVu48Z1PNOGzGKEMmLFk64x0InvLcAiTN7yHPsQrCrhDYzIcs+FEPNpW553FXu3iYlEDohsgD2dmywUX6Oj0cy7GbrOchRMqOWTCbY7rVB6Iw/xk6e02wFl3hy8iElI0hKUwUBbwj84bFkO6mCLzE3nxIE4UqMGhlIE1AyYNyWs7TnB3KWhWxkqOodFjfFttMhojIawvy6Pu+f23FBeRnojK61w6t1Ec64zRBwS5Ca1wh1fZ2SFO0ALd3CdIzaFr/KQONALktuRoKYTYzTDmG3MCslBvOwd8u5itJbHwXwCJ2wCx+xazEqRFvMRpCqkO/hl6NAxSuJnrOv74gf8iNio69r3y4VMBNMl5jIqwMuQEKzJaTmmewXUc8Jmx81wLRs4SEbgXvl1HoLDu3DMpSBHUUrSUM+1nMDGsib03KlIUe6b3NR72WiN1IdjbiDTXY6XC6jBlOwz+DgoQlfep8yHvl80LC9wmb/kxQNpSvRtOjSYuGIC09laZ+rjHwYAN5aHgWu1PXv72WwZnTOXsO099AJfVsTtVUT0eHEMaAfzMiPq/tb6Vp41UT+X+NzFc88l1vbRhiBz7+0HLISGp2prDSzP19byDrR22fn4Wd9azQesCL0u1zRNSj2LiGRVx8NO6Gv3HJkOnpqBAziNQZe9jGpvloya9CorkyShM98JK6DBUTAFGGzZ87IF+IFDvbLlzTlBA/R5PkJaUp6DIAt33cu+6V4GADOiupKlR/WXt8ixb7qULydCFZlSvFkIhXVKoh1DFq9hIBJBFi8PuEjLyKExni8833QGEBhyqNJOQSZAIwOTzdQIepuDrTDIWqwaaaU9Cx1/m5hoUnIZ/MCrMpkhCiG+Fgm4Y5mYhvgqB3AsnbbpkIkvq2rYyjfxYMNifBjWX764nFgx3AO4dEH3/S5eciQeDxRdpGwlZMgE5oXUGJ3u1Ks7jTooiTESK26DT55DBL4sHHlw73PnoFcAZIwBOe4XlgyOggyOakA59JIa6DCs7WL6AaRoipDmA8S4JNA51uQiRixvDAB4zpxlQlKuru9ZILj6xZPVV1/effhi9fXHdx9+ufrpn/77r9+svvpi9eST1+///eXzD+T6pDAamxMHC4fGrXpdr+1AakUkxOOpCUBsBxYTtIsLgYOjMVL3NjFod3vto35LlJCIGKrLLqLxK+HSC+LhSC5CTCR2UQs3X4oY47AkqXGKm+hKBr+iXeO0dJJ/n6KMxavnf371/G/3aquAxfCq0mjUtkFfVb2yU9Kr96CvfqrsK+FHpWo1IZyRQaey5kdx6tlGraI3KvU9vRKVbzvK4E1CWZayNDYvtYyeJLUlIopSIDkOmSLvx5iyiC1PQmIgg3j3j5+9/uyjlJSKrqKkrYBzArnwybRwIEwfn44Lo+HZabtbGHdHPE9iXkJOGn+DsJo9Ok/JpFk/bamU2kSV5t6omJ3xyPeCxVqliKkbJDfWjHVuRlPEZt21mLdBXu3ax082KaiVdGJAapyetQoTN0oyQUMpjiQl+Kp2Pf3Ry69fvHzxk1f//tXds89WT/+4+uePU3bUbNH9HlIXDkhyGGUyVDHVNTIUdD4SMb3Sv5/oEorIr0MnHnEZNaqPdsRVSA0R6Fa4OfEb9ebQuYRlETagZyjoOybt3jJ1WI1jpKUJ4OjChKbpxVfIiCDrchze/3zyu7vffnH37PPX7/919cFfVj9/9ur5719/+gd5ku4++vzu6aeqcmeLu/CFX0wlliuIlw6rwE9Ygbfgwjfv/bLgeqwAyKEQiCrzzXu/ThjjjgqMEVsGZBY5knZhTTSpzPUKCVciH1J6kYrs423elmqRhGpM3oJY8STvlrgpgJcFwfhWb1wKKC54AIq+DStJC8fK2+opFdkmT/b0aqWquNIbvoSJSROhP3K8iekUQoZ4R8iIpLTerBDLivmO+sNWsx+LSCeGvo19nobyA/VoiA3D9EpQgAuYzQoc/tyzJrbOQuFXooRp6t1k2rT5a/nmV4aUBGoHvi+Rjaue3EfBAnBs+MB2P188Oiag67GEmUkwG497nTQfxgkuNLQ0mxMEX1QlxZIVqkf5E41Eosc8NPEQeKmHSgiHelWXiOmawDZovNh0fd/zN1acmBOKDQAEQxXR4ohHMhqfUgJmO96rkBBWuehDXtrUCr0OdjDL/eQcag8A8T5UF/Y+r2qPDh1bBTPfrSEKS2wg+e7OEyWvM03fByjEX+lyP5T3iXvVy7d6w66aUzzZ26nv7TbqlXoDN2pTuBZPd6Z4WqtNAQwKo/wSyU3wWwi/guWbBABgWj2+Lp/CBTqnNRlgocivlBApcSBVYY/G6JD4lD3mJUp9ScpFRLmQcPgx909+iPGFUXskCSCgJSfTUl6H9YXJP9F4Tp/MSc5rpx4WobQRSIPFQuLFvBsKPe8Y3wKaTViAaj35AfQz+U6Tx5o8VVDkI/3Q1iiY5DanhconwOeJ9TDtrg3A7OHa4g8exPk/HBDI66Emei4llzOWd1+rcP3Du7haqk4tq7QDgxJ040kJzmqjouvTmv2oyh+mlXHoDgTf5JyE9xRCA9PJr6dl/mJt/A8KOvYt6h4AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.3785388757796309</v>
+        <v>-0.3785388757796306</v>
       </c>
     </row>
     <row r="21">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Consolidated Government Revenue: ytd</Name>
+          <DisplayName>Consolidated Government Revenue: ytd</DisplayName>
+          <SeriesId>310918701</SeriesId>
+          <Code>SR4824980</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA713D4F-6A21-442C-AE69-9E36392CC077}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_133.xlsx
+++ b/Testdata/TC_133.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/iuWn+DB7radSeyo0ivfEizsOIodMtkX1O4ux0Xa3aarOonfFgHa0cJISOwOAnZBICEQErsrsazYHdD8l9U4MzzxFzh16audGXcYZZSuc6tTp06d81UFvXM7dwrX2KfEcw+KlbJeLGDX8mziXh4UAzYtVXaL7xioe2th58T0zTlmIFwALZfu31JyUJwxttjXtJubm/JNrez5l1pV1yva40F/ZM3w3CwRlzLTtXAx0rLfrlU0UNueDzAzbZOZUvOg2Bv1ym1MrA7QBqZrXmK/3AoocTGlXZcRRjDlmj42GW53Bt+TCzOq5d1yBWlr9FiyFRDHlnIpSUlXcjAtHpM5Nqp6VS/p9VJVH+uN/Vp1X98t71Xq74aKkSDqm5SNsH9NLEEYMXO+EOp6Hf43alV9F2kbhcBWHAADDR37FF8Tiu02dhyaKyKa2sCmxWDV+YKpIy2hqww93IUj31zMxoQ5OK/6oedjCwL1oLmP8c3QV/EbL/rAHc+Iz5Ydc5nb1hnF/nDBo5FP1UAdz2VNB/vsbAGbim3Yc2AYzA8w0u5hxkodQi34Jm6AbWNqOjSplGKic8+/ogvTwsdwYDVu48Z1PNOGzGKEMmLFk64x0InvLcAiTN7yHPsQrCrhDYzIcs+FEPNpW553FXu3iYlEDohsgD2dmywUX6Oj0cy7GbrOchRMqOWTCbY7rVB6Iw/xk6e02wFl3hy8iElI0hKUwUBbwj84bFkO6mCLzE3nxIE4UqMGhlIE1AyYNyWs7TnB3KWhWxkqOodFjfFttMhojIawvy6Pu+f23FBeRnojK61w6t1Ec64zRBwS5Ca1wh1fZ2SFO0ALd3CdIzaFr/KQONALktuRoKYTYzTDmG3MCslBvOwd8u5itJbHwXwCJ2wCx+xazEqRFvMRpCqkO/hl6NAxSuJnrOv74gf8iNio69r3y4VMBNMl5jIqwMuQEKzJaTmmewXUc8Jmx81wLRs4SEbgXvl1HoLDu3DMpSBHUUrSUM+1nMDGsib03KlIUe6b3NR72WiN1IdjbiDTXY6XC6jBlOwz+DgoQlfep8yHvl80LC9wmb/kxQNpSvRtOjSYuGIC09laZ+rjHwYAN5aHgWu1PXv72WwZnTOXsO099AJfVsTtVUT0eHEMaAfzMiPq/tb6Vp41UT+X+NzFc88l1vbRhiBz7+0HLISGp2prDSzP19byDrR22fn4Wd9azQesCL0u1zRNSj2LiGRVx8NO6Gv3HJkOnpqBAziNQZe9jGpvloya9CorkyShM98JK6DBUTAFGGzZ87IF+IFDvbLlzTlBA/R5PkJaUp6DIAt33cu+6V4GADOiupKlR/WXt8ixb7qULydCFZlSvFkIhXVKoh1DFq9hIBJBFi8PuEjLyKExni8833QGEBhyqNJOQSZAIwOTzdQIepuDrTDIWqwaaaU9Cx1/m5hoUnIZ/MCrMpkhCiG+Fgm4Y5mYhvgqB3AsnbbpkIkvq2rYyjfxYMNifBjWX764nFgx3AO4dEH3/S5eciQeDxRdpGwlZMgE5oXUGJ3u1Ks7jTooiTESK26DT55DBL4sHHlw73PnoFcAZIwBOe4XlgyOggyOakA59JIa6DCs7WL6AaRoipDmA8S4JNA51uQiRixvDAB4zpxlQlKuru9ZILj6xZPVV1/effhi9fXHdx9+ufrpn/77r9+svvpi9eST1+///eXzD+T6pDAamxMHC4fGrXpdr+1AakUkxOOpCUBsBxYTtIsLgYOjMVL3NjFod3vto35LlJCIGKrLLqLxK+HSC+LhSC5CTCR2UQs3X4oY47AkqXGKm+hKBr+iXeO0dJJ/n6KMxavnf371/G/3aquAxfCq0mjUtkFfVb2yU9Kr96CvfqrsK+FHpWo1IZyRQaey5kdx6tlGraI3KvU9vRKVbzvK4E1CWZayNDYvtYyeJLUlIopSIDkOmSLvx5iyiC1PQmIgg3j3j5+9/uyjlJSKrqKkrYBzArnwybRwIEwfn44Lo+HZabtbGHdHPE9iXkJOGn+DsJo9Ok/JpFk/bamU2kSV5t6omJ3xyPeCxVqliKkbJDfWjHVuRlPEZt21mLdBXu3ax082KaiVdGJAapyetQoTN0oyQUMpjiQl+Kp2Pf3Ry69fvHzxk1f//tXds89WT/+4+uePU3bUbNH9HlIXDkhyGGUyVDHVNTIUdD4SMb3Sv5/oEorIr0MnHnEZNaqPdsRVSA0R6Fa4OfEb9ebQuYRlETagZyjoOybt3jJ1WI1jpKUJ4OjChKbpxVfIiCDrchze/3zyu7vffnH37PPX7/919cFfVj9/9ur5719/+gd5ku4++vzu6aeqcmeLu/CFX0wlliuIlw6rwE9Ygbfgwjfv/bLgeqwAyKEQiCrzzXu/ThjjjgqMEVsGZBY5knZhTTSpzPUKCVciH1J6kYrs423elmqRhGpM3oJY8STvlrgpgJcFwfhWb1wKKC54AIq+DStJC8fK2+opFdkmT/b0aqWquNIbvoSJSROhP3K8iekUQoZ4R8iIpLTerBDLivmO+sNWsx+LSCeGvo19nobyA/VoiA3D9EpQgAuYzQoc/tyzJrbOQuFXooRp6t1k2rT5a/nmV4aUBGoHvi+Rjaue3EfBAnBs+MB2P188Oiag67GEmUkwG497nTQfxgkuNLQ0mxMEX1QlxZIVqkf5E41Eosc8NPEQeKmHSgiHelWXiOmawDZovNh0fd/zN1acmBOKDQAEQxXR4ohHMhqfUgJmO96rkBBWuehDXtrUCr0OdjDL/eQcag8A8T5UF/Y+r2qPDh1bBTPfrSEKS2wg+e7OEyWvM03fByjEX+lyP5T3iXvVy7d6w66aUzzZ26nv7TbqlXoDN2pTuBZPd6Z4WqtNAQwKo/wSyU3wWwi/guWbBABgWj2+Lp/CBTqnNRlgocivlBApcSBVYY/G6JD4lD3mJUp9ScpFRLmQcPgx909+iPGFUXskCSCgJSfTUl6H9YXJP9F4Tp/MSc5rpx4WobQRSIPFQuLFvBsKPe8Y3wKaTViAaj35AfQz+U6Tx5o8VVDkI/3Q1iiY5DanhconwOeJ9TDtrg3A7OHa4g8exPk/HBDI66Emei4llzOWd1+rcP3Du7haqk4tq7QDgxJ040kJzmqjouvTmv2oyh+mlXHoDgTf5JyE9xRCA9PJr6dl/mJt/A8KOvYt6h4AAA==</t>
+          <t>8RwAAB+LCAAAAAAAAAOlWVtvI0kV/istP8GD3W072YmjSq98SYKFHUexQyb7gtrdlbhIu8t0VSfx26JdtKOFkZDYHQTsgkBCICR2V2JZsTug+S+rcWZ44i9w6tI325lxD6No0nVuderUqXO+qqC3b6e+cY1DRmiwV6pWrJKBA5d6JLjcK0X8olx9q/S2jfZvXewfO6EzxRyEDdAK2O4tI3ulCeezXdO8ubmp3NQrNLw0a5ZVNR/2e0N3gqdOmQSMO4GLS4mW93qtko3a3rSPueM53FGae6XusFtpY+J2gNZ3AucSh5VWxEiAGdsPOOEEM6EZYofjdqf/A7Uwu1Z5q1JF5go9lWxFxPeUXE5S0bUcTItHZIrtmlXdKVuNslUfWY3dbWu31qjUrO13YsVEEPUcxoc4vCauJAy5M51Jdath1a3GtlVrIHOtENhKA2Cjge+d4GvCsNfGvs8KRcTUG9h0Oay6WDAtZGZ0taE3d+EwdGaTEeE+LubGyWnLGAfal9SIjQ5oiF2I3xu5dIRvBqEO62jWA+5oQkI+7zjzwrZOGQ4HMxGkYqo26tCAN30c8tMZ7DX2IBWAYfMwwsi8h5kqdQhz4ZsEEfbsC8dnWaUcE53R8IrNHBcfwTk2hY2bwKeOBwnHCePETSddYaDjkM7AIkzeor53AFa18BpGYrkbQIjFtC1Kr1Lv1jGR3FW5v7CnU4fH4it0NJzQm0Hgz4fRmLkhGWOv04ql1/KQOJBaux0xTqfgRUpCipah9PvmHP7BGVzmoA52ydTxj32II7PrYChHQM2I0wvC29SPpgGL3VqiojNY1AjfJotMxmgA+xuIuNOgG8TyKtJrWXmFE3qTzLnKkHHIkJvMjXd8lbEs3AFavIOrHLkpYpUHxIcWkd2ODDWfGMMJxnxtVigOEtXwQDQduzU/iqZjOGFjOGbXclaGzJSPIFUh3cEv24JGUpY/I8valT/gR8JG+4F3v1zMRDBdZi67CrwlEoI1+S3fCa6Aekb45KgZr2UNB6kI3Cu/ykNweGe+M5fkJEpZGuoGrh95WNWEbnAhU1T4pjb1XjZaIfXgmNvICeaj+QxKMyO7HD72StCsdxkPAQ6UbJdGAQ/nonggU4u+TodF40BO4Pgb61yE+McRoJD5QRS4beptPpunonMaEL65hzQKVUXcXEVGTxTHiHWwKDOy7m+s7xZZEwsLiU8DPKUBcTePNgRZeO+9wUJYfKo21sDqfG0s70NrV51PnPWN1UKAkNDrCk3TZIy6RCarPh5eRt+858h08IUT+QDfOHTZy6T2LpNRk10ty2RJ6DT04wpoC3DMAB273rTiAn4QCLDi0qkgmABKz4bIzMoLEOTi/eCy5wSXEcCMpK4s05P6K1rkKHQCJpaToIqlUrxeCMV1SqEdWxWvQSQTQRUvClxkLsmhEZ7OaOj4fQgMOdBppyEToJG+wyd6BL3Nx24cZDNVTbTynsWOv05MNim1DHHgdZlcIkohsRaFw1OZlIbEKvtwLP2245NxqKpq3MrX8WDDUnwY11+xuIJYMd4DuItB9/0+nguAng40XaZsNWaoBBaF1B6ebO3Utho7oCTHSK64DT5Rn0h8aRxSuA4GU9AzABljQI67xpzDUVDB0Q2ogF5WAx3EtV1O34cUzRHyfIAYlwQ6x4pcwkjl7T4Az4k/z0iq1fWoC4KLXzxafP3V3UfPFt98cvfRV4uf/um///rN4usvF48+ffnB358//VCtTwmjkTP2sXRo1NrZsepbkFoJCYl4mhIQe5HLJe38XOLgZIz0dU4O2vvd9mGvJUtIQozVVRcxxU1xTqN0OFSLkBPJXTTjzVci9iguSXqc42a6ki1ubtc4L53l36eoYvHi6Z9fPP3bvdo6YCm8qjYa9U3QF9yBt8pW7R701cuVfS28Xa7VMsJLMuhE1fwkTl3PrletRnXngVVNyreXZPA6oWWWtjRyLs0lPUVqK0SUpEB2HDNl3o8w4wlbnYTMQAXx7h8/e/n5xzkpHV1NyVsB5yRyEZOZ8UCaPjoZGcPB6Ul73xjtD0WepLyMnDL+CmE9e3KeskmzetpyKbWOqsy9UnF5xsOQRrOVSpFS10iurRmr3CVNGZtV11LeGnm9a588WqegV9JJAWnyhJGloRxHkTJ8Xbse/+T5N8+eP3v/xb9/dffk88XjPy7++V7Ojp4tud9D6sIByQ6TTIYqprvGEgWdDWVMr6wfZrqEJorr0DElAWd2bXtLXoX0EIFuVZiTv1F3Cp1LWpZhA/oSBX3PYfu3XB9W+wiZeQI4OnOgadL0CpkQVF1Ow/ufT39399sv75588fKDvy4+/Mvi509ePP39y8/+oE7S3cdf3D3+TFfu5eIufREXU4XlDPnS4RrihBmiBRvfvvtLI6DcAORgRLLKfPvurzPGhKMSY6SWAZkljuRdWBHNKgs9I+NK4kNOL1FRfbwt2lI9kdCNic6Im07yTlmYAnhpSMZ3uqNyxLBBARR9F1aSF06VN9XTKqpNHj+watWa5ipvxBLGDsuE/tCnY8c3YoZ8R1gSyWm9WiGVlfMd9gatZi8VUU4MQg+HIg3VB4qRoWgTXRaP4lTLUIAL+M2NfPH0syK2ykosZ8qZqd9QLpqeeFBf/+KQk0DtKAwVygn0q/wwmgGmjR/b7ufLB8gMjD1SkDMLbNNxt5PnwzjDheaWZwuC5MsKpVmqWnWZeK5RqPRIhCYdAi/3aAnh0A/vCj1dE9gSUxSe/TCk4drqk3JisT4AYqgoZhrxREbuqQLPXrpXMSGueMmHusDpFdIO9jEv9iptptp9QL9vqgt7X1S1ywa+p4NZ7AaRhCU1kH2aF4ny/77Mq2RrhiGAJfGOV/gpPb5/nsC1taA3ailSUVzkYHb91n1AQsYfikqgvxTlPKGcK9T5UNyb1Iccn9v1bUUAATNr3cy5GR9drv5AQv0emZKCtzsrPt95IxDL2UzBsm6xTBGt5QjfAmjMWICiOP4RtA31HFLEmkpYqKWJvniCZORywos69mDsYA+PrbI7xrXylmftlBsY18vVKvzvuLWaZW2LB0xtHCoHwTcFJzHjDUv/cGn/Dy9GuyLxHAAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.3785388757796306</v>
+        <v>-0.3785388757796309</v>
       </c>
     </row>
     <row r="21">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Consolidated Government Revenue: ytd</Name>
-          <DisplayName>Consolidated Government Revenue: ytd</DisplayName>
-          <SeriesId>310918701</SeriesId>
-          <Code>SR4824980</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA713D4F-6A21-442C-AE69-9E36392CC077}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>